--- a/faturas.xlsx
+++ b/faturas.xlsx
@@ -388,7 +388,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.300 00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -415,7 +415,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.100 00</t>
+          <t>3.100,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.340 05</t>
+          <t>5.340,05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
